--- a/Assets/06.Table/Title_Special.xlsx
+++ b/Assets/06.Table/Title_Special.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BB2FB1-C6BE-4B79-913C-5917D9CBE642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8777E43-E2D6-41B2-B853-02FDCFD4D2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -1748,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1813,7 +1813,7 @@
         <v>41</v>
       </c>
       <c r="F2">
-        <v>1.2E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="G2" t="s">
         <v>107</v>
@@ -1845,7 +1845,7 @@
         <v>38</v>
       </c>
       <c r="F3">
-        <v>1.5000000000000001E-4</v>
+        <v>1.2000000000000002E-4</v>
       </c>
       <c r="G3" t="s">
         <v>107</v>
@@ -1877,7 +1877,7 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>1.5000000000000001E-4</v>
+        <v>1.2000000000000002E-4</v>
       </c>
       <c r="G4" t="s">
         <v>107</v>
@@ -1909,7 +1909,7 @@
         <v>44</v>
       </c>
       <c r="F5">
-        <v>6.0000000000000002E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G5" t="s">
         <v>107</v>
@@ -1941,7 +1941,7 @@
         <v>52</v>
       </c>
       <c r="F6">
-        <v>1.5</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
@@ -1973,7 +1973,7 @@
         <v>56</v>
       </c>
       <c r="F7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="s">
         <v>107</v>
@@ -2005,7 +2005,7 @@
         <v>74</v>
       </c>
       <c r="F8">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G8" t="s">
         <v>107</v>
@@ -2037,7 +2037,7 @@
         <v>75</v>
       </c>
       <c r="F9">
-        <v>0.08</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G9" t="s">
         <v>107</v>
@@ -2069,7 +2069,7 @@
         <v>99</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G10" t="s">
         <v>107</v>

--- a/Assets/06.Table/Title_Special.xlsx
+++ b/Assets/06.Table/Title_Special.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8777E43-E2D6-41B2-B853-02FDCFD4D2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BBB9BC-1699-49AA-9242-58DBE96FDAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="166">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1013,6 +1013,17 @@
   </si>
   <si>
     <t>SpecialTitleUnlockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialTitle15</t>
+  </si>
+  <si>
+    <t>수호 동물 각성 4</t>
+  </si>
+  <si>
+    <t>수호 동물
+수호왕 획득 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1746,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2274,6 +2285,38 @@
       </c>
       <c r="J16">
         <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="33">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <v>0.7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17">
+        <v>47</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Special.xlsx
+++ b/Assets/06.Table/Title_Special.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B604129-BBDD-4830-83D9-E46E93D37C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8C4765-A22E-44A8-895B-2D708C74124E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Special" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,32 @@
   <si>
     <t>무림고수 보상
 하북팽가의 검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락 정복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialTitle20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락천왕 보상
+극락천왕의 검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialTitle21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림 정복5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림고수 보상
+설산가주의 검 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,13 +734,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
@@ -726,7 +752,7 @@
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="33">
       <c r="A2">
         <v>0</v>
       </c>
@@ -790,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="33">
       <c r="A3">
         <v>1</v>
       </c>
@@ -822,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="33">
       <c r="A4">
         <v>2</v>
       </c>
@@ -854,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="33">
       <c r="A5">
         <v>3</v>
       </c>
@@ -886,7 +912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="33">
       <c r="A6">
         <v>4</v>
       </c>
@@ -918,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="33">
       <c r="A7">
         <v>5</v>
       </c>
@@ -950,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="33">
       <c r="A8">
         <v>6</v>
       </c>
@@ -982,7 +1008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="33">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1014,7 +1040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="33">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1046,7 +1072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="33">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1078,7 +1104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="33">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1107,10 +1133,10 @@
         <v>30</v>
       </c>
       <c r="J12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1139,10 +1165,10 @@
         <v>26</v>
       </c>
       <c r="J13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="33">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1171,10 +1197,10 @@
         <v>38</v>
       </c>
       <c r="J14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="33">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1203,10 +1229,10 @@
         <v>37</v>
       </c>
       <c r="J15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="33">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1235,10 +1261,10 @@
         <v>36</v>
       </c>
       <c r="J16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="33">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1267,10 +1293,10 @@
         <v>61</v>
       </c>
       <c r="J17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="33">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1299,10 +1325,10 @@
         <v>67</v>
       </c>
       <c r="J18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="33">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1331,10 +1357,10 @@
         <v>66</v>
       </c>
       <c r="J19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="33">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1363,10 +1389,10 @@
         <v>72</v>
       </c>
       <c r="J20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="33">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1395,7 +1421,71 @@
         <v>73</v>
       </c>
       <c r="J21">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="33">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>114</v>
+      </c>
+      <c r="F22">
+        <v>0.05</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>168</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="33">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>119</v>
+      </c>
+      <c r="F23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>173</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Special.xlsx
+++ b/Assets/06.Table/Title_Special.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8C4765-A22E-44A8-895B-2D708C74124E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E752D2-F8E1-4640-AF9D-5A46B5BEFAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Special" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,19 @@
   <si>
     <t>무림고수 보상
 설산가주의 검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림고수 보상
+혈마의 검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림 정복6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialTitle22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1488,6 +1501,38 @@
         <v>21</v>
       </c>
     </row>
+    <row r="24" spans="1:10" ht="33">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>119</v>
+      </c>
+      <c r="F24">
+        <v>0.03</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>177</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Title_Special.xlsx
+++ b/Assets/06.Table/Title_Special.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E752D2-F8E1-4640-AF9D-5A46B5BEFAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52409986-8574-4D6C-A911-6AB0E8D17524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Special" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,17 @@
   </si>
   <si>
     <t>SpecialTitle22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialTitle23</t>
+  </si>
+  <si>
+    <t>무림 정복7</t>
+  </si>
+  <si>
+    <t>무림고수 보상
+청풍검객의 검 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,15 +758,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
@@ -1503,7 +1514,7 @@
     </row>
     <row r="24" spans="1:10" ht="33">
       <c r="A24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -1531,6 +1542,38 @@
       </c>
       <c r="J24">
         <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="33">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>119</v>
+      </c>
+      <c r="F25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>181</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Special.xlsx
+++ b/Assets/06.Table/Title_Special.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52409986-8574-4D6C-A911-6AB0E8D17524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C794512D-9246-4EF8-A8B6-E912C1EECA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +378,19 @@
   <si>
     <t>무림고수 보상
 청풍검객의 검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialTitle24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림 정복8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림고수 보상
+청사신의 검 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1576,6 +1589,38 @@
         <v>23</v>
       </c>
     </row>
+    <row r="26" spans="1:10" ht="33">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>119</v>
+      </c>
+      <c r="F26">
+        <v>0.04</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>185</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Title_Special.xlsx
+++ b/Assets/06.Table/Title_Special.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C794512D-9246-4EF8-A8B6-E912C1EECA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3460A9F6-9A03-43A6-8FA6-0AF258194962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Special" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,17 @@
   <si>
     <t>무림고수 보상
 청사신의 검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialTitle25</t>
+  </si>
+  <si>
+    <t>무림 정복9</t>
+  </si>
+  <si>
+    <t>무림고수 보상
+백사화의 부채 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1621,6 +1632,38 @@
         <v>24</v>
       </c>
     </row>
+    <row r="27" spans="1:10" ht="33">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>119</v>
+      </c>
+      <c r="F27">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>189</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Title_Special.xlsx
+++ b/Assets/06.Table/Title_Special.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3460A9F6-9A03-43A6-8FA6-0AF258194962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1017E8-4F80-4A71-8141-925040F2303A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,19 @@
   <si>
     <t>무림고수 보상
 백사화의 부채 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialTitle26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림 정복10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림고수 보상
+자연술사의 검 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1664,6 +1677,38 @@
         <v>25</v>
       </c>
     </row>
+    <row r="28" spans="1:10" ht="33">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>119</v>
+      </c>
+      <c r="F28">
+        <v>0.05</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>193</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
